--- a/test/10.test/submission_tracker_c.xlsx
+++ b/test/10.test/submission_tracker_c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcolmorian/Documents/Bioinformatics/Projects2022/seq_service/seqbox1/test/10.test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/10.test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{644D98A6-7D47-5141-97A3-051C099E37E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC93724-A9D2-E64F-A9E5-C883D0689438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submission_tracker_c" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>institution</t>
   </si>
@@ -170,12 +170,18 @@
   </si>
   <si>
     <t>B12</t>
+  </si>
+  <si>
+    <t>sequencing_type_requested</t>
+  </si>
+  <si>
+    <t>Illumina metagenomics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -715,7 +721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1003,21 +1009,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,76 +1092,79 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1135,49 +1181,52 @@
         <v>37</v>
       </c>
       <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>31</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2021</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>44917</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>43</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>50</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1194,45 +1243,48 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>40</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>31</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2021</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>48</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>44917</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>43</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>45</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>49</v>
       </c>
     </row>
